--- a/static/tutorials/r_quick_tips/003_import/df_excel3.xlsx
+++ b/static/tutorials/r_quick_tips/003_import/df_excel3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\tiagoolivoto\static\tutorials\r_quick_tips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\tiagoolivoto\static\tutorials\r_quick_tips\003_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10538AB-0BDE-48C8-BB4D-05A3C6585290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67A925-6148-42B9-9DE4-6C523566B542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E43AC296-BC4E-444A-A4E0-CFE6E2B7F353}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E43AC296-BC4E-444A-A4E0-CFE6E2B7F353}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>RAD</t>
   </si>
@@ -49,6 +49,114 @@
   </si>
   <si>
     <t>MST</t>
+  </si>
+  <si>
+    <t>5,02</t>
+  </si>
+  <si>
+    <t>5016,43</t>
+  </si>
+  <si>
+    <t>12,31</t>
+  </si>
+  <si>
+    <t>3,65</t>
+  </si>
+  <si>
+    <t>3648,36</t>
+  </si>
+  <si>
+    <t>10,73</t>
+  </si>
+  <si>
+    <t>3,93</t>
+  </si>
+  <si>
+    <t>3925,33</t>
+  </si>
+  <si>
+    <t>10,86</t>
+  </si>
+  <si>
+    <t>4,71</t>
+  </si>
+  <si>
+    <t>4705,27</t>
+  </si>
+  <si>
+    <t>10,98</t>
+  </si>
+  <si>
+    <t>6,12</t>
+  </si>
+  <si>
+    <t>6118,43</t>
+  </si>
+  <si>
+    <t>15,75</t>
+  </si>
+  <si>
+    <t>5,61</t>
+  </si>
+  <si>
+    <t>5614,23</t>
+  </si>
+  <si>
+    <t>13,30</t>
+  </si>
+  <si>
+    <t>5,11</t>
+  </si>
+  <si>
+    <t>5109,94</t>
+  </si>
+  <si>
+    <t>13,88</t>
+  </si>
+  <si>
+    <t>4,98</t>
+  </si>
+  <si>
+    <t>4975,86</t>
+  </si>
+  <si>
+    <t>13,09</t>
+  </si>
+  <si>
+    <t>5,46</t>
+  </si>
+  <si>
+    <t>5464,53</t>
+  </si>
+  <si>
+    <t>16,92</t>
+  </si>
+  <si>
+    <t>5,55</t>
+  </si>
+  <si>
+    <t>5551,95</t>
+  </si>
+  <si>
+    <t>14,93</t>
+  </si>
+  <si>
+    <t>5,72</t>
+  </si>
+  <si>
+    <t>5723,85</t>
+  </si>
+  <si>
+    <t>16,13</t>
+  </si>
+  <si>
+    <t>5,87</t>
+  </si>
+  <si>
+    <t>5869,70</t>
+  </si>
+  <si>
+    <t>15,78</t>
   </si>
 </sst>
 </file>
@@ -403,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56191C5-9478-4E48-A508-DD951D889736}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,14 +541,14 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5016.42875</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12.30785</v>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -450,14 +558,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>3.65</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3648.3589000000002</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10.73315</v>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -467,14 +575,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>3.93</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3925.3332500000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10.8614</v>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -484,14 +592,14 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>4.71</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4705.2685000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10.9785</v>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,14 +609,14 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>6.12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6118.4251000000004</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15.751799999999999</v>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,14 +626,14 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>5.61</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5614.2330499999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>13.30495</v>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -535,14 +643,14 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5109.9443499999998</v>
-      </c>
-      <c r="E8" s="1">
-        <v>13.88435</v>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -552,14 +660,14 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4975.8569500000003</v>
-      </c>
-      <c r="E9" s="1">
-        <v>13.09225</v>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,14 +677,14 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>5.46</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5464.5280000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>16.9224</v>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,14 +694,14 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>5.55</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5551.9511499999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>14.93085</v>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,14 +711,14 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5723.8487500000001</v>
-      </c>
-      <c r="E12" s="1">
-        <v>16.129000000000001</v>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,18 +728,19 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>5.87</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5869.6974499999997</v>
-      </c>
-      <c r="E13" s="1">
-        <v>15.78145</v>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -639,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7249B272-2481-4FC3-BFCE-C4D55AA15FF3}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
